--- a/uploads/stored_excel_file.xlsx
+++ b/uploads/stored_excel_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Customer_feedback_analyser\app\Example Codes\Test_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4CE069-0A65-4528-B7C5-973E8F2DEF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45FA0B6-9ECC-4B85-85D7-863C0B1D5667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EEFF7A3-2865-4B94-9AED-F1777EB219E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C23FB4F2-0520-4195-96A4-7766DBB0A447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>Client Name</t>
   </si>
@@ -42,415 +42,409 @@
     <t>Priya Sharma</t>
   </si>
   <si>
-    <t>Summer Cotton Dress</t>
-  </si>
-  <si>
-    <t>The cotton dress is soft and comfortable, delivered on time, and customer support was very helpful with my size queries before ordering.</t>
+    <t>Gold-Plated Pendant Necklace</t>
+  </si>
+  <si>
+    <t>The necklace is stunning and looks just like the pictures. Delivery was fast and customer support helped me choose the perfect gift wrap.</t>
   </si>
   <si>
     <t>Rahul Mehra</t>
   </si>
   <si>
-    <t>Classic Blue Jeans</t>
-  </si>
-  <si>
-    <t>Jeans fit well and the stitching is strong. Delivery was a day late, but customer support kept me updated throughout the process.</t>
+    <t>Silver Hoop Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are elegant and lightweight. Delivery was a day late, but support kept me updated and answered my questions about returns.</t>
   </si>
   <si>
     <t>Anjali Patel</t>
   </si>
   <si>
-    <t>Floral Print Kurti</t>
-  </si>
-  <si>
-    <t>The kurti's print is vibrant and fabric feels premium. Delivery was prompt and support quickly answered my questions about washing instructions.</t>
+    <t>Pearl Bracelet</t>
+  </si>
+  <si>
+    <t>The bracelet is beautiful and fits perfectly. Delivery was prompt and support was helpful with my questions about matching accessories.</t>
   </si>
   <si>
     <t>Sunita Verma</t>
   </si>
   <si>
-    <t>Men's Polo T-Shirt</t>
-  </si>
-  <si>
-    <t>The t-shirt is decent but not as soft as expected. Delivery was on time, but I didn't need to contact support.</t>
+    <t>Rose Gold Watch</t>
+  </si>
+  <si>
+    <t>The watch is stylish but the strap feels a bit flimsy. Delivery was on time and support was average with my queries.</t>
   </si>
   <si>
     <t>Harsh Gupta</t>
   </si>
   <si>
-    <t>Women's Linen Pants</t>
-  </si>
-  <si>
-    <t>The linen pants were too loose despite ordering my usual size. Delivery was slow and customer support took long to respond to my exchange request.</t>
+    <t>Gemstone Stud Earrings</t>
+  </si>
+  <si>
+    <t>The earrings arrived with a missing stone and delivery was late. Customer support took several days to resolve my complaint.</t>
   </si>
   <si>
     <t>Kavita Nair</t>
   </si>
   <si>
-    <t>Silk Saree</t>
-  </si>
-  <si>
-    <t>The saree is gorgeous and exactly as described. Delivery was earlier than promised and support was very polite and knowledgeable.</t>
+    <t>Diamond Nose Pin</t>
+  </si>
+  <si>
+    <t>The nose pin sparkles beautifully and fits well. Delivery was quick and support was very helpful with my order modifications.</t>
   </si>
   <si>
     <t>Sameer Joshi</t>
   </si>
   <si>
-    <t>Men's Formal Shirt</t>
-  </si>
-  <si>
-    <t>The shirt is crisp and fits well. Delivery was smooth, and customer support helped me track my order when I had concerns.</t>
+    <t>Leather Wallet</t>
+  </si>
+  <si>
+    <t>The wallet is sleek and well-made. Delivery was smooth, and support was responsive when I needed to change my delivery address.</t>
   </si>
   <si>
     <t>Ritu Singh</t>
   </si>
   <si>
-    <t>Women's Maxi Dress</t>
-  </si>
-  <si>
-    <t>The maxi dress is elegant, fits perfectly, and was delivered quickly. Customer support was friendly and helped me choose the right size.</t>
+    <t>Silver Anklet</t>
+  </si>
+  <si>
+    <t>The anklet is delicate and looks lovely. Delivery was fast and support was excellent in helping me choose the right size.</t>
   </si>
   <si>
     <t>Deepak Rao</t>
   </si>
   <si>
-    <t>Men's Chinos</t>
-  </si>
-  <si>
-    <t>Chinos are comfortable but the color faded slightly after one wash. Delivery was on time, and support responded to my feedback promptly.</t>
+    <t>Gold Chain Bracelet</t>
+  </si>
+  <si>
+    <t>The bracelet is nice but the clasp is a bit loose. Delivery was on time and support arranged a replacement quickly.</t>
   </si>
   <si>
     <t>Sneha Iyer</t>
   </si>
   <si>
-    <t>Embroidered Kurta Set</t>
-  </si>
-  <si>
-    <t>The kurta set is beautifully embroidered and fits perfectly. Delivery was fast and support was quick to answer my questions about returns.</t>
+    <t>Crystal Drop Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are dazzling and perfect for parties. Delivery was prompt and support was friendly when I had questions about care instructions.</t>
   </si>
   <si>
     <t>Rajesh Kumar</t>
   </si>
   <si>
-    <t>Casual Denim Jacket</t>
-  </si>
-  <si>
-    <t>The jacket is stylish and warm. Delivery was on schedule, and customer support was helpful when I asked about care instructions.</t>
+    <t>Stainless Steel Watch</t>
+  </si>
+  <si>
+    <t>The watch is durable and looks great. Delivery was on time, and support was helpful with my queries about warranty.</t>
   </si>
   <si>
     <t>Shweta Menon</t>
   </si>
   <si>
-    <t>Printed Cotton Saree</t>
-  </si>
-  <si>
-    <t>The saree is lightweight and perfect for daily wear. Delivery was fast and support was courteous when I had a query about matching blouses.</t>
+    <t>Beaded Charm Bracelet</t>
+  </si>
+  <si>
+    <t>The charm bracelet is colorful and well-crafted. Delivery was fast and support was helpful with my questions about custom engraving.</t>
   </si>
   <si>
     <t>Amitabh Jain</t>
   </si>
   <si>
-    <t>Men's Slim Fit Jeans</t>
-  </si>
-  <si>
-    <t>The jeans are not true to size and the zipper was faulty. Delivery was late and support took a while to resolve my issue.</t>
+    <t>Gold-Plated Ring</t>
+  </si>
+  <si>
+    <t>The ring tarnished after a week of use. Delivery was late and support was slow to process my return request.</t>
   </si>
   <si>
     <t>Neha Suri</t>
   </si>
   <si>
-    <t>Women's Tunic Top</t>
-  </si>
-  <si>
-    <t>The tunic is comfortable and fits well. Delivery was prompt, and support was responsive when I needed help with my order status.</t>
+    <t>Silver Pendant</t>
+  </si>
+  <si>
+    <t>The pendant is pretty and matches my chain perfectly. Delivery was prompt, and support answered my questions about authenticity.</t>
   </si>
   <si>
     <t>Arjun Das</t>
   </si>
   <si>
-    <t>Men's Hoodie</t>
-  </si>
-  <si>
-    <t>The hoodie is warm and fits perfectly. Delivery was fast and customer support was excellent when I asked about size exchanges.</t>
+    <t>Leather Belt</t>
+  </si>
+  <si>
+    <t>The belt is sturdy and fits well. Delivery was quick and support was excellent with my size exchange request.</t>
   </si>
   <si>
     <t>Pooja Reddy</t>
   </si>
   <si>
-    <t>Women's Palazzo Pants</t>
-  </si>
-  <si>
-    <t>Palazzo pants are stylish but the fabric is thinner than expected. Delivery was on time, and support was helpful with my return request.</t>
+    <t>Pearl Drop Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are elegant but slightly heavier than expected. Delivery was on time and support was average with my queries.</t>
   </si>
   <si>
     <t>Tanya Kapoor</t>
   </si>
   <si>
-    <t>Men's Casual Shirt</t>
-  </si>
-  <si>
-    <t>The shirt is comfortable and fits great. Delivery was prompt and support answered my questions about fabric care quickly and clearly.</t>
+    <t>Gold-Plated Bangles</t>
+  </si>
+  <si>
+    <t>The bangles are beautiful and fit perfectly. Delivery was prompt and support was very helpful with my questions about sizing.</t>
   </si>
   <si>
     <t>Mohit Sinha</t>
   </si>
   <si>
-    <t>Women's Anarkali Suit</t>
-  </si>
-  <si>
-    <t>The suit is elegant and fits well. Delivery was a day late, but support was helpful and kept me informed throughout the delay.</t>
+    <t>Oxidized Silver Necklace</t>
+  </si>
+  <si>
+    <t>The necklace has a unique design and looks great. Delivery was a bit delayed, but support kept me informed throughout the process.</t>
   </si>
   <si>
     <t>Radhika Bose</t>
   </si>
   <si>
-    <t>Men's Track Pants</t>
-  </si>
-  <si>
-    <t>Track pants are comfortable but the pockets are shallow. Delivery was on time, and support replied quickly when I asked about returns.</t>
+    <t>Crystal Brooch</t>
+  </si>
+  <si>
+    <t>The brooch is pretty but the pin is not very sturdy. Delivery was on time and support responded quickly to my feedback.</t>
   </si>
   <si>
     <t>Gaurav Malhotra</t>
   </si>
   <si>
-    <t>Women's Crop Top</t>
-  </si>
-  <si>
-    <t>The crop top was poorly stitched and arrived with a stain. Delivery was late and customer support was unhelpful with my complaint.</t>
+    <t>Gold-Plated Earrings</t>
+  </si>
+  <si>
+    <t>The earrings arrived broken and delivery was late. Customer support was unhelpful and it took weeks to get a replacement.</t>
   </si>
   <si>
     <t>Meera Pillai</t>
   </si>
   <si>
-    <t>Men's Linen Shirt</t>
-  </si>
-  <si>
-    <t>The shirt is breathable and perfect for hot weather. Delivery was quick and support was friendly when I needed help with sizing.</t>
+    <t>Silver Toe Rings</t>
+  </si>
+  <si>
+    <t>The toe rings are comfortable and shiny. Delivery was fast and support was friendly when I needed help with my order.</t>
   </si>
   <si>
     <t>Siddharth Rao</t>
   </si>
   <si>
-    <t>Women's Wrap Dress</t>
-  </si>
-  <si>
-    <t>The wrap dress is flattering and the fabric feels premium. Delivery was fast and customer support was very responsive to my inquiries.</t>
+    <t>Leather Keychain</t>
+  </si>
+  <si>
+    <t>The keychain is stylish and durable. Delivery was prompt and support was excellent in helping me choose a matching wallet.</t>
   </si>
   <si>
     <t>Vinita Jain</t>
   </si>
   <si>
-    <t>Men's Casual Shorts</t>
-  </si>
-  <si>
-    <t>The shorts are comfortable and true to size. Delivery was on time, and support was helpful when I needed to change my delivery address.</t>
+    <t>Gold-Plated Maang Tikka</t>
+  </si>
+  <si>
+    <t>The maang tikka is gorgeous and fits well. Delivery was on time and support was helpful with my questions about matching sets.</t>
   </si>
   <si>
     <t>Rohit Bansal</t>
   </si>
   <si>
-    <t>Women's Ethnic Gown</t>
-  </si>
-  <si>
-    <t>The gown is beautiful but slightly see-through. Delivery was on time, and support answered my questions about returns quickly.</t>
+    <t>Silver Cufflinks</t>
+  </si>
+  <si>
+    <t>The cufflinks are nice but the fastening is a bit tricky. Delivery was on time and support was prompt in handling my exchange request.</t>
   </si>
   <si>
     <t>Manisha Desai</t>
   </si>
   <si>
-    <t>Men's Cargo Pants</t>
-  </si>
-  <si>
-    <t>Cargo pants are durable and fit well. Delivery was earlier than expected and customer support was polite and helpful with my queries.</t>
+    <t>Crystal Hair Clip</t>
+  </si>
+  <si>
+    <t>The hair clip is sparkly and holds well. Delivery was earlier than expected and support was polite and helpful with my queries.</t>
   </si>
   <si>
     <t>Karan Oberoi</t>
   </si>
   <si>
-    <t>Women's Long Skirt</t>
-  </si>
-  <si>
-    <t>The skirt is flowy and vibrant. Delivery was prompt and support was excellent in assisting me with my size selection.</t>
+    <t>Gold-Plated Bracelet</t>
+  </si>
+  <si>
+    <t>The bracelet is elegant and fits perfectly. Delivery was prompt and support was excellent in assisting me with my gift order.</t>
   </si>
   <si>
     <t>Rhea Prasad</t>
   </si>
   <si>
-    <t>Men's Henley T-Shirt</t>
-  </si>
-  <si>
-    <t>The t-shirt is soft and fits great. Delivery was fast and support helped me with my exchange request efficiently.</t>
+    <t>Silver Anklet Set</t>
+  </si>
+  <si>
+    <t>The anklet set is delicate and beautiful. Delivery was fast and support helped me with my order modifications efficiently.</t>
   </si>
   <si>
     <t>Sanjay Talwar</t>
   </si>
   <si>
-    <t>Women's Blazer</t>
-  </si>
-  <si>
-    <t>The blazer arrived wrinkled and the fit was off. Delivery was late and support was not very helpful with my return request.</t>
+    <t>Gemstone Pendant</t>
+  </si>
+  <si>
+    <t>The pendant was smaller than expected and the chain was tangled. Delivery was late and support was not very helpful with my complaint.</t>
   </si>
   <si>
     <t>Aarti Chawla</t>
   </si>
   <si>
-    <t>Men's Bomber Jacket</t>
-  </si>
-  <si>
-    <t>The jacket is stylish but heavier than expected. Delivery was on time and support answered my questions about care instructions.</t>
+    <t>Leather Card Holder</t>
+  </si>
+  <si>
+    <t>The card holder is practical but the stitching could be better. Delivery was on time and support answered my questions about returns.</t>
   </si>
   <si>
     <t>Nikhil Anand</t>
   </si>
   <si>
-    <t>Women's Peplum Top</t>
-  </si>
-  <si>
-    <t>The peplum top is elegant and fits perfectly. Delivery was quick and support was very helpful with my queries about matching bottoms.</t>
+    <t>Gold-Plated Nose Ring</t>
+  </si>
+  <si>
+    <t>The nose ring is dainty and shines beautifully. Delivery was quick and support was very helpful with my sizing questions.</t>
   </si>
   <si>
     <t>Sheetal Joshi</t>
   </si>
   <si>
-    <t>Men's Formal Trousers</t>
-  </si>
-  <si>
-    <t>The trousers are decent but run slightly short. Delivery was on time and support was responsive when I asked about alterations.</t>
+    <t>Silver Stud Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are decent but the backs are loose. Delivery was on time and support arranged a replacement part quickly.</t>
   </si>
   <si>
     <t>Vikram Singh</t>
   </si>
   <si>
-    <t>Women's Denim Jacket</t>
-  </si>
-  <si>
-    <t>The jacket runs small and the color is not as shown. Delivery was delayed and support was slow to respond to my emails.</t>
+    <t>Crystal Pendant Necklace</t>
+  </si>
+  <si>
+    <t>The necklace chain broke after one use. Delivery was delayed and support was slow to respond to my emails.</t>
   </si>
   <si>
     <t>Ananya Ghosh</t>
   </si>
   <si>
-    <t>Men's Graphic Tee</t>
-  </si>
-  <si>
-    <t>The t-shirt is comfortable and the print is vibrant. Delivery was fast and support was helpful with my questions about fabric care.</t>
+    <t>Gold-Plated Choker</t>
+  </si>
+  <si>
+    <t>The choker is trendy and comfortable. Delivery was fast and support was helpful with my queries about care instructions.</t>
   </si>
   <si>
     <t>Aditya Roy</t>
   </si>
   <si>
-    <t>Women's Jumpsuit</t>
-  </si>
-  <si>
-    <t>The jumpsuit is stylish but the zipper is flimsy. Delivery was on time and support was responsive to my exchange request.</t>
+    <t>Silver Bracelet</t>
+  </si>
+  <si>
+    <t>The bracelet is nice but the clasp is difficult to use. Delivery was on time and support was responsive to my feedback.</t>
   </si>
   <si>
     <t>Ishita Paul</t>
   </si>
   <si>
-    <t>Men's Sweatpants</t>
-  </si>
-  <si>
-    <t>The sweatpants are soft and fit perfectly. Delivery was quick and support was friendly when I needed help with my order.</t>
+    <t>Leather Watch Strap</t>
+  </si>
+  <si>
+    <t>The watch strap is soft and fits perfectly. Delivery was quick and support was friendly when I needed help with installation.</t>
   </si>
   <si>
     <t>Pranav Shetty</t>
   </si>
   <si>
-    <t>Women's Cardigan</t>
-  </si>
-  <si>
-    <t>The cardigan is cozy and the color is lovely. Delivery was fast and support was helpful with my questions about returns.</t>
+    <t>Oxidized Silver Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are unique and lightweight. Delivery was fast and support was helpful with my questions about matching accessories.</t>
   </si>
   <si>
     <t>Ayesha Khan</t>
   </si>
   <si>
-    <t>Men's Checked Shirt</t>
-  </si>
-  <si>
-    <t>The shirt is fine but the material is rougher than expected. Delivery was on time and support answered my questions promptly.</t>
+    <t>Gold-Plated Anklet</t>
+  </si>
+  <si>
+    <t>The anklet is pretty but the clasp is a bit weak. Delivery was on time and support answered my questions about repairs.</t>
   </si>
   <si>
     <t>Rakesh Nair</t>
   </si>
   <si>
-    <t>Women's Midi Dress</t>
-  </si>
-  <si>
-    <t>The dress is beautiful and fits well. Delivery was prompt and support was helpful with my queries about alterations.</t>
+    <t>Silver Chain</t>
+  </si>
+  <si>
+    <t>The chain is sturdy and shiny. Delivery was prompt and support was helpful with my queries about length adjustments.</t>
   </si>
   <si>
     <t>Shruti Mishra</t>
   </si>
   <si>
-    <t>Men's Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>The hoodie shrank after washing and the color faded. Delivery was late and support did not resolve my complaint satisfactorily.</t>
+    <t>Crystal Hairband</t>
+  </si>
+  <si>
+    <t>The hairband is pretty but uncomfortable to wear. Delivery was late and support did not resolve my complaint satisfactorily.</t>
   </si>
   <si>
     <t>Yash Saxena</t>
   </si>
   <si>
-    <t>Women's Palazzo Suit</t>
-  </si>
-  <si>
-    <t>The palazzo suit is elegant and comfortable. Delivery was fast and support was excellent in helping me choose the right size.</t>
+    <t>Gold-Plated Brooch</t>
+  </si>
+  <si>
+    <t>The brooch is elegant and adds a nice touch to my outfits. Delivery was fast and support was excellent with my order.</t>
   </si>
   <si>
     <t>Rina Thomas</t>
   </si>
   <si>
-    <t>Men's Cargo Shorts</t>
-  </si>
-  <si>
-    <t>The shorts are practical and well-made. Delivery was on time and support was helpful with my questions about returns.</t>
+    <t>Silver Bangle Set</t>
+  </si>
+  <si>
+    <t>The bangles are beautiful and fit well. Delivery was on time and support was helpful with my questions about returns.</t>
   </si>
   <si>
     <t>Kunal Bhatt</t>
   </si>
   <si>
-    <t>Women's Shrug</t>
-  </si>
-  <si>
-    <t>The shrug is soft and stylish. Delivery was prompt and support was friendly when I needed help with matching outfits.</t>
+    <t>Leather Bracelet</t>
+  </si>
+  <si>
+    <t>The bracelet is stylish and comfortable. Delivery was prompt and support was friendly when I needed help with my order.</t>
   </si>
   <si>
     <t>Malini Iyer</t>
   </si>
   <si>
-    <t>Men's Cotton Kurta</t>
-  </si>
-  <si>
-    <t>The kurta is comfortable but the color faded slightly after washing. Delivery was on time and support was helpful with my feedback.</t>
+    <t>The earrings are nice but heavier than expected. Delivery was on time and support was helpful with my feedback.</t>
   </si>
   <si>
     <t>Sagar Kapoor</t>
   </si>
   <si>
-    <t>Women's Pencil Skirt</t>
-  </si>
-  <si>
-    <t>The skirt is elegant and fits perfectly. Delivery was fast and support was very helpful with my sizing questions.</t>
+    <t>Silver Pendant Necklace</t>
+  </si>
+  <si>
+    <t>The pendant necklace is beautiful and fits my style perfectly. Delivery was fast and support was very helpful with my order.</t>
   </si>
   <si>
     <t>Tara Menon</t>
   </si>
   <si>
-    <t>Men's Linen Trousers</t>
-  </si>
-  <si>
-    <t>The trousers are light and comfortable. Delivery was quick and support was helpful with my questions about alterations.</t>
+    <t>Crystal Stud Earrings</t>
+  </si>
+  <si>
+    <t>The earrings are sparkly and lightweight. Delivery was quick and support was helpful with my questions about matching sets.</t>
   </si>
   <si>
     <t>Naveen Rao</t>
   </si>
   <si>
-    <t>Women's Printed Top</t>
-  </si>
-  <si>
-    <t>The top is okay but the fabric is slightly sheer. Delivery was on time and support was responsive to my queries.</t>
+    <t>The wallet is decent but the card slots are tight. Delivery was on time and support was responsive to my queries.</t>
   </si>
 </sst>
 </file>
@@ -801,19 +795,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789920BD-F01C-45A7-88E6-E7A280DD1275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21D7D6-E52D-4B0B-AD26-6F30D5846A94}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,55 +1417,55 @@
         <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>134</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
